--- a/tests/Results.xlsx
+++ b/tests/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LUT</t>
   </si>
@@ -78,14 +78,55 @@
   </si>
   <si>
     <t>Performance-Optimized, barrel shifter, integer multiplier (DSP Slice), divider, and branch target cache (5 Stage Pipeline)</t>
+  </si>
+  <si>
+    <t>Frequency-Optimized, otherwise matching implementation #1</t>
+  </si>
+  <si>
+    <t>Maximum Frequency - No cache, 5 stage pipeline, no mulplier/divider/caches. Intended to reach the maximum frequency</t>
+  </si>
+  <si>
+    <t>Minimum Area, no multiplier, divider, or branch predictor (3 Stage pipeline)</t>
+  </si>
+  <si>
+    <t>Maximum Frequency, otherwise matching implementation #1</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>** Dynamic power does not include power from PLL, which makes up ~101mW</t>
+  </si>
+  <si>
+    <t>Frequency-Optimized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Performance - No i/d cache, 5 stage pipeline, multiper + branch cache </t>
+  </si>
+  <si>
+    <t>Area Optimized, includes mulitplier and barrel shifter (3 Stage pipeline)</t>
+  </si>
+  <si>
+    <t>2nd tests</t>
+  </si>
+  <si>
+    <t>pt2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,132 +487,413 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1590</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1359</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>25</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
+        <f>H4+I4</f>
         <v>1.264</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2316</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2071</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>75</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>43</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.66300000000000003</v>
       </c>
-      <c r="J5">
-        <f>H5+I5</f>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J13" si="0">H5+I5</f>
         <v>1.1880000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" s="1">
+        <v>2365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2420</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.296</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.516</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1530</v>
+      </c>
+      <c r="C9">
+        <v>1359</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>125</v>
+      </c>
+      <c r="H9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.0109999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3166</v>
+      </c>
+      <c r="C10">
+        <v>3222</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>125</v>
+      </c>
+      <c r="H10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.4870000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2316</v>
+      </c>
+      <c r="C11">
+        <v>2071</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="1">H11+I11</f>
+        <v>1.1880000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1881</v>
+      </c>
+      <c r="C12">
+        <v>1717</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>69</v>
+      </c>
+      <c r="G12">
+        <v>125</v>
+      </c>
+      <c r="H12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1739</v>
+      </c>
+      <c r="C13">
+        <v>1510</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <v>125</v>
+      </c>
+      <c r="H13">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/Results.xlsx
+++ b/tests/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>LUT</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Test 1 (s)</t>
   </si>
   <si>
-    <t>Implementation</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
@@ -62,62 +59,68 @@
     <t>FF</t>
   </si>
   <si>
-    <t>DPWR (mW)</t>
-  </si>
-  <si>
     <t>SPWR (mW)</t>
   </si>
   <si>
-    <t>*Dynamic power does not include power from PLL or BRAM. This adds an additional 103mW and 21mW respectively for each test</t>
-  </si>
-  <si>
     <t>Impl #</t>
   </si>
   <si>
-    <t>Area-Optimized, no multiplier, divider, or branch predictor (3 Stage pipeline)</t>
-  </si>
-  <si>
-    <t>Performance-Optimized, barrel shifter, integer multiplier (DSP Slice), divider, and branch target cache (5 Stage Pipeline)</t>
-  </si>
-  <si>
-    <t>Frequency-Optimized, otherwise matching implementation #1</t>
-  </si>
-  <si>
     <t>Maximum Frequency - No cache, 5 stage pipeline, no mulplier/divider/caches. Intended to reach the maximum frequency</t>
   </si>
   <si>
-    <t>Minimum Area, no multiplier, divider, or branch predictor (3 Stage pipeline)</t>
-  </si>
-  <si>
-    <t>Maximum Frequency, otherwise matching implementation #1</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>** Dynamic power does not include power from PLL, which makes up ~101mW</t>
-  </si>
-  <si>
-    <t>Frequency-Optimized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Performance - No i/d cache, 5 stage pipeline, multiper + branch cache </t>
-  </si>
-  <si>
-    <t>Area Optimized, includes mulitplier and barrel shifter (3 Stage pipeline)</t>
-  </si>
-  <si>
-    <t>2nd tests</t>
-  </si>
-  <si>
-    <t>pt2</t>
+    <t>5 Stage pipe no branch cache - Includes multiplier, no divider. Intended to reach high frequency with multiplier</t>
+  </si>
+  <si>
+    <t>Minimum Area, no multiplier, divider, or branch target buffer (3 Stage pipeline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Performance - 5 stage pipeline, multiplier/divider + barrel multiplier + branch cache </t>
+  </si>
+  <si>
+    <t>Maximum Performance - #3 but with no branch target buffer</t>
+  </si>
+  <si>
+    <t>3 stage pipeline with multiplier &amp; divider</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t>BTB</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Pipeline Stages</t>
+  </si>
+  <si>
+    <t>DPWR* (mW)</t>
+  </si>
+  <si>
+    <t>* Dynamic power does not include power from PLL, which makes up ~101mW</t>
+  </si>
+  <si>
+    <t>Implementations</t>
+  </si>
+  <si>
+    <t>Notes : BTB Reduced max frequency by 20%, but did not effect performance much</t>
+  </si>
+  <si>
+    <t>Notes: Divider had the largest effect on performance, multiplier had large effect</t>
+  </si>
+  <si>
+    <t>Notes: 5 Stage pipeline allowed for 10% higher frequency than 3 stage pipeline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +136,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,14 +178,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,29 +482,29 @@
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -480,149 +513,187 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1590</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>1530</v>
+      </c>
+      <c r="C4">
         <v>1359</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>75</v>
       </c>
-      <c r="F4" s="1">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="I4">
+        <v>6.625</v>
+      </c>
+      <c r="J4">
+        <f>H4+I4</f>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1998</v>
+      </c>
+      <c r="C5">
+        <v>1631</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <v>1.593</v>
+      </c>
+      <c r="I5">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="J5">
+        <f>H5+I5</f>
+        <v>3.1749999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2398</v>
+      </c>
+      <c r="C6">
+        <v>2071</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>59</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="J4" s="1">
-        <f>H4+I4</f>
-        <v>1.264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2316</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2071</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="H6">
+        <v>1.728</v>
+      </c>
+      <c r="I6">
+        <v>1.716</v>
+      </c>
+      <c r="J6">
+        <f>H6+I6</f>
+        <v>3.444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2278</v>
+      </c>
+      <c r="C7">
+        <v>1877</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E7">
         <v>75</v>
       </c>
-      <c r="F5" s="1">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" ref="J5:J13" si="0">H5+I5</f>
-        <v>1.1880000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="F7">
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <v>125</v>
+      </c>
+      <c r="H7">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="I7">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="J7">
+        <f>H7+I7</f>
+        <v>10.193999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2403</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>2365</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2420</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E8">
         <v>75</v>
       </c>
-      <c r="F6" s="1">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.296</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+      <c r="F8">
+        <v>77</v>
+      </c>
+      <c r="G8">
+        <v>125</v>
+      </c>
+      <c r="H8">
+        <v>1.425</v>
+      </c>
+      <c r="I8">
+        <v>1.415</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f>H8+I8</f>
+        <v>2.84</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1530</v>
+        <v>2265</v>
       </c>
       <c r="C9">
-        <v>1359</v>
+        <v>1855</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -631,266 +702,281 @@
         <v>75</v>
       </c>
       <c r="F9">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>125</v>
       </c>
       <c r="H9">
-        <v>0.44600000000000001</v>
+        <v>6.86</v>
       </c>
       <c r="I9">
-        <v>0.56499999999999995</v>
+        <v>6.4379999999999997</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <f>H9+I9</f>
+        <v>13.298</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>3166</v>
-      </c>
-      <c r="C10">
-        <v>3222</v>
-      </c>
-      <c r="D10">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>75</v>
-      </c>
-      <c r="F10">
-        <v>57</v>
-      </c>
-      <c r="G10">
-        <v>125</v>
-      </c>
-      <c r="H10">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="I10">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1.4870000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>2316</v>
-      </c>
-      <c r="C11">
-        <v>2071</v>
-      </c>
-      <c r="D11">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I11">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ref="J11" si="1">H11+I11</f>
-        <v>1.1880000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>1881</v>
-      </c>
-      <c r="C12">
-        <v>1717</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>75</v>
-      </c>
-      <c r="F12">
-        <v>69</v>
-      </c>
-      <c r="G12">
-        <v>125</v>
-      </c>
-      <c r="H12">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I12">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1.095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>1739</v>
-      </c>
-      <c r="C13">
-        <v>1510</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>68</v>
-      </c>
-      <c r="G13">
-        <v>125</v>
-      </c>
-      <c r="H13">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/Results.xlsx
+++ b/tests/Results.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\Word-documents\CPP\ECE-5850\5850-Ublaze-Applications\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="10005"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mhPp0KvO+Nca6zPYRm0U1qBB4PqRA=="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>All tests performed on  Xilinx 7s50csga324 device</t>
   </si>
@@ -153,9 +161,6 @@
     <t>Maximum Frequency - No cache, 5 stage pipeline, no mulplier/divider/caches. Intended to reach the maximum frequency</t>
   </si>
   <si>
-    <t>PPW</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
@@ -167,33 +172,77 @@
   <si>
     <t>A test consisting of 32kB of numbers being encrypted and decrypted</t>
   </si>
+  <si>
+    <t>Board PWR (mW)</t>
+  </si>
+  <si>
+    <t>Delta Power (mW)</t>
+  </si>
+  <si>
+    <t>Running PWR</t>
+  </si>
+  <si>
+    <t>IO Only</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PPW Real Delta Power</t>
+  </si>
+  <si>
+    <t>Board &amp; System</t>
+  </si>
+  <si>
+    <t>Static &amp; Dynamic</t>
+  </si>
+  <si>
+    <t>Vivado Estimated</t>
+  </si>
+  <si>
+    <t>Measured Static + Dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <strike/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -201,7 +250,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -217,37 +266,56 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -256,7 +324,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -264,24 +332,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Execution Time per Implementation (seconds)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32kB of Characters</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -289,18 +367,27 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -309,17 +396,78 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$4:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.2750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.728</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -327,6 +475,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32kB of Numbers</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -334,18 +488,27 @@
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -354,47 +517,127 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$4:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.716</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="662618728"/>
-        <c:axId val="1647125226"/>
+        <c:axId val="345940280"/>
+        <c:axId val="345941064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662618728"/>
+        <c:axId val="345940280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1647125226"/>
+        <c:crossAx val="345941064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1647125226"/>
+        <c:axId val="345941064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,6 +653,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -421,16 +666,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662618728"/>
+        <c:crossAx val="345940280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -440,6 +688,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -453,21 +702,33 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -476,7 +737,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -484,24 +745,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Resource Utilization per Implementation</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Look up Tables</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -509,18 +780,27 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -529,17 +809,78 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2398</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -547,6 +888,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flip-Flops</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -554,18 +901,27 @@
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -574,46 +930,126 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2071</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="2117751728"/>
-        <c:axId val="1544698926"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="345936360"/>
+        <c:axId val="345941456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117751728"/>
+        <c:axId val="345936360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1544698926"/>
+        <c:crossAx val="345941456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1544698926"/>
+        <c:axId val="345941456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,6 +1065,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -640,16 +1078,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117751728"/>
+        <c:crossAx val="345936360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -659,6 +1100,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -672,21 +1114,33 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -695,7 +1149,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -703,24 +1157,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Power Utilization per Implementation (mW)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Vivado Estimated Power Utilization per Implementation (mW)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phase Locked Loop Power</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -728,18 +1192,27 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -748,17 +1221,78 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$16:$T$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -766,6 +1300,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static Power</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -773,18 +1313,27 @@
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -793,17 +1342,78 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$16:$T$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -811,6 +1421,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Power</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -818,18 +1434,27 @@
               <a:srgbClr val="FF9900"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="434343"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -838,47 +1463,127 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$16:$T$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$19:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1453474154"/>
-        <c:axId val="1878177953"/>
+        <c:axId val="345937536"/>
+        <c:axId val="345941848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1453474154"/>
+        <c:axId val="345937536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1878177953"/>
+        <c:crossAx val="345941848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1878177953"/>
+        <c:axId val="345941848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,6 +1599,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -905,16 +1612,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1453474154"/>
+        <c:crossAx val="345937536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -924,6 +1634,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -937,21 +1648,33 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -960,7 +1683,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -968,24 +1691,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Additional Resources per Implementation</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Additional BRAM</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -993,18 +1726,27 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1013,17 +1755,78 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$23:$T$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1031,6 +1834,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP Slices</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1038,18 +1847,27 @@
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1058,46 +1876,126 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$23:$T$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1638537307"/>
-        <c:axId val="1616280160"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="345937928"/>
+        <c:axId val="345943024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1638537307"/>
+        <c:axId val="345937928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1616280160"/>
+        <c:crossAx val="345943024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1616280160"/>
+        <c:axId val="345943024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,6 +2011,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1124,16 +2024,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1638537307"/>
+        <c:crossAx val="345937928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1143,6 +2046,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1156,21 +2060,33 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1179,7 +2095,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1187,24 +2103,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Maximum Frequency per Implementation (MHz)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1212,18 +2138,27 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1232,46 +2167,126 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$O$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$28:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="718024495"/>
-        <c:axId val="103736734"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="345942632"/>
+        <c:axId val="345939104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="718024495"/>
+        <c:axId val="345942632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103736734"/>
+        <c:crossAx val="345939104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103736734"/>
+        <c:axId val="345939104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,6 +2302,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1298,16 +2315,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718024495"/>
+        <c:crossAx val="345942632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1316,17 +2336,28 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1335,7 +2366,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1343,24 +2374,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Performance Per Watt (kB/s per W)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$32</c:f>
+              <c:f>Sheet1!$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vivado Estimated</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1368,18 +2409,27 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
+                  <a:defRPr sz="900" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1388,46 +2438,126 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$31:$T$31</c:f>
+              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$32:$T$32</c:f>
+              <c:f>Sheet1!$O$44:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.97</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1133824645"/>
-        <c:axId val="1145810276"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="346554384"/>
+        <c:axId val="346551248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1133824645"/>
+        <c:axId val="346554384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145810276"/>
+        <c:crossAx val="346551248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1145810276"/>
+        <c:axId val="346551248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,6 +2573,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1454,16 +2586,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1133824645"/>
+        <c:crossAx val="346554384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1472,26 +2607,880 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured Power Utilization per Implementation (mW)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board &amp; System</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$30:$T$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$31:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static &amp; Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$30:$T$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$32:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="473041296"/>
+        <c:axId val="473040120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="473041296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473040120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473040120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473041296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Per Watt (kB/s per W)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vivado Estimated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$44:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured Static + Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$45:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="473046000"/>
+        <c:axId val="473039728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="473046000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473039728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473039728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473046000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4210050" cy="2743200"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="56233631" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1502,7 +3491,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,13 +3499,13 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="2743200"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1882961708" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1527,7 +3516,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1535,13 +3524,13 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4219575" cy="2743200"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1377279146" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1552,7 +3541,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1560,13 +3549,13 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="2743200"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="448056128" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1577,7 +3566,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1585,13 +3574,13 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="2743200"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="631650914" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1602,7 +3591,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1610,13 +3599,13 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="2743200"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="246354416" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1627,7 +3616,61 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219575" cy="2743200"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4229100" cy="2743200"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1636,37 +3679,298 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="11.57"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="15.71"/>
-    <col customWidth="1" min="9" max="9" width="14.29"/>
-    <col customWidth="1" min="10" max="13" width="8.71"/>
-    <col customWidth="1" min="14" max="14" width="14.57"/>
-    <col customWidth="1" min="15" max="15" width="8.71"/>
-    <col customWidth="1" min="16" max="16" width="9.29"/>
-    <col customWidth="1" min="17" max="18" width="8.71"/>
-    <col customWidth="1" min="19" max="19" width="9.14"/>
-    <col customWidth="1" min="20" max="26" width="8.71"/>
+    <col min="1" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1686,48 +3990,67 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="C4">
-        <v>1359.0</v>
+        <v>1359</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>125.0</v>
+        <v>916</v>
       </c>
       <c r="H4">
-        <v>6.275</v>
+        <v>925</v>
       </c>
       <c r="I4">
+        <f>H4-G10</f>
+        <v>355</v>
+      </c>
+      <c r="J4">
+        <v>125</v>
+      </c>
+      <c r="K4">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="L4">
         <v>6.625</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="1">H4+I4</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M9" si="0">K4+L4</f>
         <v>12.9</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1749,43 +4072,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="C5">
-        <v>1631.0</v>
+        <v>1631</v>
       </c>
       <c r="D5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>115.0</v>
+        <v>876</v>
       </c>
       <c r="H5">
+        <v>758</v>
+      </c>
+      <c r="I5">
+        <f>H5-G10</f>
+        <v>188</v>
+      </c>
+      <c r="J5">
+        <v>115</v>
+      </c>
+      <c r="K5">
         <v>1.593</v>
       </c>
-      <c r="I5">
-        <v>1.582</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>3.175</v>
+      <c r="L5">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3.1749999999999998</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O5">
-        <v>6.275</v>
+        <v>6.2750000000000004</v>
       </c>
       <c r="P5">
         <v>1.593</v>
@@ -1794,7 +4127,7 @@
         <v>6.86</v>
       </c>
       <c r="R5">
-        <v>4.959</v>
+        <v>4.9589999999999996</v>
       </c>
       <c r="S5">
         <v>1.425</v>
@@ -1803,211 +4136,275 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2398.0</v>
+        <v>2398</v>
       </c>
       <c r="C6">
-        <v>2071.0</v>
+        <v>2071</v>
       </c>
       <c r="D6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>100.0</v>
+        <v>872</v>
       </c>
       <c r="H6">
+        <v>753</v>
+      </c>
+      <c r="I6">
+        <f>H6-G10</f>
+        <v>183</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
         <v>1.728</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>1.716</v>
       </c>
-      <c r="J6">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>3.444</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6">
+        <v>6.625</v>
+      </c>
+      <c r="P6">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>6.4379999999999997</v>
+      </c>
+      <c r="R6">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="S6">
+        <v>1.415</v>
+      </c>
+      <c r="T6">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2278</v>
+      </c>
+      <c r="C7">
+        <v>1877</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <v>912</v>
+      </c>
+      <c r="H7">
+        <v>937</v>
+      </c>
+      <c r="I7">
+        <f>H7-G10</f>
+        <v>367</v>
+      </c>
+      <c r="J7">
+        <v>125</v>
+      </c>
+      <c r="K7">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="L7">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>10.193999999999999</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:T7" si="1">O5+O6</f>
+        <v>12.9</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>13.298</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>10.193999999999999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>2.84</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
         <v>3.444</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6">
-        <v>6.625</v>
-      </c>
-      <c r="P6">
-        <v>1.582</v>
-      </c>
-      <c r="Q6">
-        <v>6.438</v>
-      </c>
-      <c r="R6">
-        <v>5.235</v>
-      </c>
-      <c r="S6">
+    </row>
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2403</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>77</v>
+      </c>
+      <c r="G8">
+        <v>922</v>
+      </c>
+      <c r="H8">
+        <v>933</v>
+      </c>
+      <c r="I8">
+        <f>H8-G10</f>
+        <v>363</v>
+      </c>
+      <c r="J8">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>1.425</v>
+      </c>
+      <c r="L8">
         <v>1.415</v>
       </c>
-      <c r="T6">
-        <v>1.716</v>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2.84</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7">
-        <v>4.0</v>
-      </c>
-      <c r="B7">
-        <v>2278.0</v>
-      </c>
-      <c r="C7">
-        <v>1877.0</v>
-      </c>
-      <c r="D7">
-        <v>3.0</v>
-      </c>
-      <c r="E7">
-        <v>75.0</v>
-      </c>
-      <c r="F7">
-        <v>88.0</v>
-      </c>
-      <c r="G7">
-        <v>125.0</v>
-      </c>
-      <c r="H7">
-        <v>4.959</v>
-      </c>
-      <c r="I7">
-        <v>5.235</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>10.194</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:T7" si="2">O5+O6</f>
-        <v>12.9</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>3.175</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2265</v>
+      </c>
+      <c r="C9">
+        <v>1855</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>912</v>
+      </c>
+      <c r="H9">
+        <v>928</v>
+      </c>
+      <c r="I9">
+        <f>H9-G10</f>
+        <v>358</v>
+      </c>
+      <c r="J9">
+        <v>125</v>
+      </c>
+      <c r="K9">
+        <v>6.86</v>
+      </c>
+      <c r="L9">
+        <v>6.4379999999999997</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
         <v>13.298</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>10.194</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>2.84</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>3.444</v>
-      </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8">
-        <v>5.0</v>
-      </c>
-      <c r="B8">
-        <v>2403.0</v>
-      </c>
-      <c r="C8">
-        <v>2001.0</v>
-      </c>
-      <c r="D8">
-        <v>3.0</v>
-      </c>
-      <c r="E8">
-        <v>75.0</v>
-      </c>
-      <c r="F8">
-        <v>77.0</v>
-      </c>
-      <c r="G8">
-        <v>125.0</v>
-      </c>
-      <c r="H8">
-        <v>1.425</v>
-      </c>
-      <c r="I8">
-        <v>1.415</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>2.84</v>
-      </c>
-      <c r="K8" s="2"/>
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>72</v>
+      </c>
+      <c r="F10" s="5">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>570</v>
+      </c>
+      <c r="H10" s="6">
+        <v>570</v>
+      </c>
+      <c r="I10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9">
-        <v>6.0</v>
-      </c>
-      <c r="B9">
-        <v>2265.0</v>
-      </c>
-      <c r="C9">
-        <v>1855.0</v>
-      </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
-      <c r="E9">
-        <v>75.0</v>
-      </c>
-      <c r="F9">
-        <v>88.0</v>
-      </c>
-      <c r="G9">
-        <v>125.0</v>
-      </c>
-      <c r="H9">
-        <v>6.86</v>
-      </c>
-      <c r="I9">
-        <v>6.438</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>13.298</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="O11" s="1" t="s">
@@ -2029,7 +4426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2038,32 +4435,31 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
         <v>20</v>
       </c>
       <c r="O12">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="P12">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="Q12">
-        <v>2265.0</v>
+        <v>2265</v>
       </c>
       <c r="R12">
-        <v>2278.0</v>
+        <v>2278</v>
       </c>
       <c r="S12">
-        <v>2403.0</v>
+        <v>2403</v>
       </c>
       <c r="T12">
-        <v>2398.0</v>
+        <v>2398</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>21</v>
@@ -2074,34 +4470,33 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
         <v>22</v>
       </c>
       <c r="O13">
-        <v>1359.0</v>
+        <v>1359</v>
       </c>
       <c r="P13">
-        <v>1631.0</v>
+        <v>1631</v>
       </c>
       <c r="Q13">
-        <v>1855.0</v>
+        <v>1855</v>
       </c>
       <c r="R13">
-        <v>1877.0</v>
+        <v>1877</v>
       </c>
       <c r="S13">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="T13">
-        <v>2071.0</v>
+        <v>2071</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2124,30 +4519,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="P17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="R17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="S17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="T17" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -2167,33 +4562,33 @@
         <v>30</v>
       </c>
       <c r="O18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="P18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Q18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="R18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="S18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="T18">
-        <v>75.0</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2202,27 +4597,27 @@
         <v>32</v>
       </c>
       <c r="O19">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="P19">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="Q19">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="R19">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="S19">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="T19">
-        <v>59.0</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>33</v>
@@ -2232,7 +4627,7 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
@@ -2241,33 +4636,33 @@
         <v>35</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:T20" si="3">O17+O18+O19</f>
+        <f t="shared" ref="O20:T20" si="2">O17+O18+O19</f>
         <v>225</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="T20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -2279,12 +4674,12 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
@@ -2292,12 +4687,12 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>33</v>
@@ -2307,7 +4702,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>11</v>
@@ -2328,72 +4723,72 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -2417,9 +4812,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -2428,120 +4823,132 @@
         <v>41</v>
       </c>
       <c r="O28" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="P28" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="R28" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="S28" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="T28" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>16</v>
+      <c r="N31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31">
+        <v>570</v>
+      </c>
+      <c r="P31">
+        <v>570</v>
+      </c>
+      <c r="Q31">
+        <v>570</v>
+      </c>
+      <c r="R31">
+        <v>570</v>
+      </c>
+      <c r="S31">
+        <v>570</v>
+      </c>
+      <c r="T31">
+        <v>570</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="N32" s="1" t="s">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32">
+        <v>355</v>
+      </c>
+      <c r="P32">
+        <v>188</v>
+      </c>
+      <c r="Q32">
+        <v>358</v>
+      </c>
+      <c r="R32">
+        <v>367</v>
+      </c>
+      <c r="S32">
+        <v>363</v>
+      </c>
+      <c r="T32">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="O32">
-        <f t="shared" ref="O32:T32" si="4">round(((2^6)/O7)/(O20/1000),3)</f>
-        <v>22.05</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="4"/>
-        <v>88.799</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>18.23</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="4"/>
-        <v>23.781</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="4"/>
-        <v>89.072</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="4"/>
-        <v>79.077</v>
-      </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="N33" s="1" t="s">
+    <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34">
-        <v>1.0</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35">
-        <v>2.0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2554,7 +4961,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2567,973 +4974,1074 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44">
+        <f>ROUND((2^16/O7)/O20,2)</f>
+        <v>22.58</v>
+      </c>
+      <c r="P44">
+        <f>ROUND((2^16/P7)/P20,2)</f>
+        <v>90.93</v>
+      </c>
+      <c r="Q44">
+        <f>ROUND((2^16/Q7)/Q20,2)</f>
+        <v>18.670000000000002</v>
+      </c>
+      <c r="R44">
+        <f>ROUND((2^16/R7)/R20,2)</f>
+        <v>24.35</v>
+      </c>
+      <c r="S44">
+        <f>ROUND((2^16/S7)/S20,2)</f>
+        <v>91.21</v>
+      </c>
+      <c r="T44">
+        <f>ROUND((2^16/T7)/T20,2)</f>
+        <v>80.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45">
+        <f>ROUND((2^16/O32)/O6,2)</f>
+        <v>27.87</v>
+      </c>
+      <c r="P45">
+        <f>ROUND((2^16/P32)/P6,2)</f>
+        <v>220.35</v>
+      </c>
+      <c r="Q45">
+        <f>ROUND((2^16/Q32)/Q6,2)</f>
+        <v>28.43</v>
+      </c>
+      <c r="R45">
+        <f>ROUND((2^16/R32)/R6,2)</f>
+        <v>34.11</v>
+      </c>
+      <c r="S45">
+        <f>ROUND((2^16/S32)/S6,2)</f>
+        <v>127.59</v>
+      </c>
+      <c r="T45">
+        <f>ROUND((2^16/T32)/T6,2)</f>
+        <v>208.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/Results.xlsx
+++ b/tests/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>All tests performed on  Xilinx 7s50csga324 device</t>
   </si>
@@ -191,16 +191,16 @@
     <t>PPW Real Delta Power</t>
   </si>
   <si>
-    <t>Board &amp; System</t>
+    <t>Measured Power</t>
   </si>
   <si>
-    <t>Static &amp; Dynamic</t>
+    <t>Board &amp; System Power</t>
   </si>
   <si>
-    <t>Vivado Estimated</t>
+    <t>Vivado Estimated Power</t>
   </si>
   <si>
-    <t>Measured Static + Dynamic</t>
+    <t>Device Power</t>
   </si>
 </sst>
 </file>
@@ -600,11 +600,265 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="345940280"/>
-        <c:axId val="345941064"/>
+        <c:axId val="182014176"/>
+        <c:axId val="348116168"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1282051282051294E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7315233785822019E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.636500754147813E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6365007541478241E-2"/>
+                  <c:y val="-3.2407407407407447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1282051282051391E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.731523378582213E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$4:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.193999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="182014176"/>
+        <c:axId val="348116168"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="345940280"/>
+        <c:axId val="182014176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345941064"/>
+        <c:crossAx val="348116168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +891,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345941064"/>
+        <c:axId val="348116168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345940280"/>
+        <c:crossAx val="182014176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -688,6 +942,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -1012,11 +1270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="345936360"/>
-        <c:axId val="345941456"/>
+        <c:axId val="348118520"/>
+        <c:axId val="348113816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345936360"/>
+        <c:axId val="348118520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345941456"/>
+        <c:crossAx val="348113816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1307,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345941456"/>
+        <c:axId val="348113816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345936360"/>
+        <c:crossAx val="348118520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,11 +1804,265 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="345937536"/>
-        <c:axId val="345941848"/>
+        <c:axId val="348118128"/>
+        <c:axId val="348118912"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.2407407407407447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302596E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8156508653122758E-2"/>
+                  <c:y val="-3.2407407407407447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8156508653122758E-2"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$16:$T$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$20:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="348118128"/>
+        <c:axId val="348118912"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="345937536"/>
+        <c:axId val="348118128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +2087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345941848"/>
+        <c:crossAx val="348118912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1583,7 +2095,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345941848"/>
+        <c:axId val="348118912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +2134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345937536"/>
+        <c:crossAx val="348118128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1634,6 +2146,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -1958,11 +2474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="345937928"/>
-        <c:axId val="345943024"/>
+        <c:axId val="348116560"/>
+        <c:axId val="348119304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345937928"/>
+        <c:axId val="348116560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345943024"/>
+        <c:crossAx val="348119304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1995,7 +2511,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345943024"/>
+        <c:axId val="348119304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345937928"/>
+        <c:crossAx val="348116560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2249,11 +2765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="345942632"/>
-        <c:axId val="345939104"/>
+        <c:axId val="348117344"/>
+        <c:axId val="348114208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345942632"/>
+        <c:axId val="348117344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345939104"/>
+        <c:crossAx val="348114208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2286,7 +2802,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345939104"/>
+        <c:axId val="348114208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345942632"/>
+        <c:crossAx val="348117344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2399,7 +2915,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vivado Estimated</c:v>
+                  <c:v>Vivado Estimated Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2520,11 +3036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346554384"/>
-        <c:axId val="346551248"/>
+        <c:axId val="348113424"/>
+        <c:axId val="348114992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346554384"/>
+        <c:axId val="348113424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +3065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346551248"/>
+        <c:crossAx val="348114992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2557,7 +3073,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346551248"/>
+        <c:axId val="348114992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +3112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346554384"/>
+        <c:crossAx val="348113424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,7 +3193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Board &amp; System</c:v>
+                  <c:v>Board &amp; System Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2798,7 +3314,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Static &amp; Dynamic</c:v>
+                  <c:v>Device Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2920,11 +3436,265 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="473041296"/>
-        <c:axId val="473040120"/>
+        <c:axId val="348115776"/>
+        <c:axId val="348112640"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8156508653122647E-2"/>
+                  <c:y val="-3.2407407407407447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302596E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302596E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302373E-2"/>
+                  <c:y val="-3.7037037037037077E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$30:$T$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$33:$T$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="348115776"/>
+        <c:axId val="348112640"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="473041296"/>
+        <c:axId val="348115776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +3719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473040120"/>
+        <c:crossAx val="348112640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2957,7 +3727,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473040120"/>
+        <c:axId val="348112640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +3766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473041296"/>
+        <c:crossAx val="348115776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3008,6 +3778,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -3102,7 +3876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vivado Estimated</c:v>
+                  <c:v>Vivado Estimated Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3225,7 +3999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measured Static + Dynamic</c:v>
+                  <c:v>Measured Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3306,22 +4080,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>27.87</c:v>
+                  <c:v>14.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.35</c:v>
+                  <c:v>109.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.43</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.11</c:v>
+                  <c:v>17.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127.59</c:v>
+                  <c:v>63.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208.69</c:v>
+                  <c:v>103.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,11 +4121,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="473046000"/>
-        <c:axId val="473039728"/>
+        <c:axId val="348882400"/>
+        <c:axId val="348883184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="473046000"/>
+        <c:axId val="348882400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +4150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473039728"/>
+        <c:crossAx val="348883184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3384,7 +4158,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473039728"/>
+        <c:axId val="348883184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,7 +4197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473046000"/>
+        <c:crossAx val="348882400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3944,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4883,7 +5657,7 @@
         <v>44</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O31">
         <v>570</v>
@@ -4906,7 +5680,7 @@
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N32" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O32">
         <v>355</v>
@@ -4930,6 +5704,33 @@
     <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33">
+        <f>O31+O32</f>
+        <v>925</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:T33" si="3">P31+P32</f>
+        <v>758</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>928</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>937</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>933</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,57 +5832,57 @@
         <v>57</v>
       </c>
       <c r="O44">
-        <f>ROUND((2^16/O7)/O20,2)</f>
+        <f t="shared" ref="O44:T44" si="4">ROUND((2^16/O7)/O20,2)</f>
         <v>22.58</v>
       </c>
       <c r="P44">
-        <f>ROUND((2^16/P7)/P20,2)</f>
+        <f t="shared" si="4"/>
         <v>90.93</v>
       </c>
       <c r="Q44">
-        <f>ROUND((2^16/Q7)/Q20,2)</f>
+        <f t="shared" si="4"/>
         <v>18.670000000000002</v>
       </c>
       <c r="R44">
-        <f>ROUND((2^16/R7)/R20,2)</f>
+        <f t="shared" si="4"/>
         <v>24.35</v>
       </c>
       <c r="S44">
-        <f>ROUND((2^16/S7)/S20,2)</f>
+        <f t="shared" si="4"/>
         <v>91.21</v>
       </c>
       <c r="T44">
-        <f>ROUND((2^16/T7)/T20,2)</f>
+        <f t="shared" si="4"/>
         <v>80.97</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N45" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O45">
-        <f>ROUND((2^16/O32)/O6,2)</f>
-        <v>27.87</v>
+        <f>ROUND((2^16/O7)/O32,2)</f>
+        <v>14.31</v>
       </c>
       <c r="P45">
-        <f>ROUND((2^16/P32)/P6,2)</f>
-        <v>220.35</v>
+        <f>ROUND((2^16/P7)/P32,2)</f>
+        <v>109.79</v>
       </c>
       <c r="Q45">
-        <f>ROUND((2^16/Q32)/Q6,2)</f>
-        <v>28.43</v>
+        <f t="shared" ref="Q45:T45" si="5">ROUND((2^16/Q7)/Q32,2)</f>
+        <v>13.77</v>
       </c>
       <c r="R45">
-        <f>ROUND((2^16/R32)/R6,2)</f>
-        <v>34.11</v>
+        <f t="shared" si="5"/>
+        <v>17.52</v>
       </c>
       <c r="S45">
-        <f>ROUND((2^16/S32)/S6,2)</f>
-        <v>127.59</v>
+        <f t="shared" si="5"/>
+        <v>63.57</v>
       </c>
       <c r="T45">
-        <f>ROUND((2^16/T32)/T6,2)</f>
-        <v>208.69</v>
+        <f t="shared" si="5"/>
+        <v>103.98</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tests/Results.xlsx
+++ b/tests/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>All tests performed on  Xilinx 7s50csga324 device</t>
   </si>
@@ -197,10 +197,31 @@
     <t>Board &amp; System Power</t>
   </si>
   <si>
-    <t>Vivado Estimated Power</t>
+    <t>Device Power</t>
   </si>
   <si>
-    <t>Device Power</t>
+    <t>Vivado Estimated</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Estimated Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Junction Temp</t>
+  </si>
+  <si>
+    <t>15.1 C/W</t>
+  </si>
+  <si>
+    <t>Effective tresistance</t>
+  </si>
+  <si>
+    <t>New dynamic</t>
   </si>
 </sst>
 </file>
@@ -600,8 +621,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="182014176"/>
-        <c:axId val="348116168"/>
+        <c:axId val="1095984"/>
+        <c:axId val="337029280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -784,7 +805,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -854,11 +874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182014176"/>
-        <c:axId val="348116168"/>
+        <c:axId val="1095984"/>
+        <c:axId val="337029280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182014176"/>
+        <c:axId val="1095984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348116168"/>
+        <c:crossAx val="337029280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +911,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348116168"/>
+        <c:axId val="337029280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182014176"/>
+        <c:crossAx val="1095984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,11 +1290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348118520"/>
-        <c:axId val="348113816"/>
+        <c:axId val="337031632"/>
+        <c:axId val="337026144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348118520"/>
+        <c:axId val="337031632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348113816"/>
+        <c:crossAx val="337026144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1327,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348113816"/>
+        <c:axId val="337026144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348118520"/>
+        <c:crossAx val="337031632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,7 +1436,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vivado Estimated Power Utilization per Implementation (mW)</a:t>
+              <a:t>Vivado Estimated Power Utilization per Implementation (mW) (out of date)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1804,8 +1824,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="348118128"/>
-        <c:axId val="348118912"/>
+        <c:axId val="337027712"/>
+        <c:axId val="337029672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1988,7 +2008,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2058,11 +2077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348118128"/>
-        <c:axId val="348118912"/>
+        <c:axId val="337027712"/>
+        <c:axId val="337029672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348118128"/>
+        <c:axId val="337027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348118912"/>
+        <c:crossAx val="337029672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,7 +2114,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348118912"/>
+        <c:axId val="337029672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348118128"/>
+        <c:crossAx val="337027712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,11 +2493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348116560"/>
-        <c:axId val="348119304"/>
+        <c:axId val="337027320"/>
+        <c:axId val="337024576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348116560"/>
+        <c:axId val="337027320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348119304"/>
+        <c:crossAx val="337024576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2511,7 +2530,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348119304"/>
+        <c:axId val="337024576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348116560"/>
+        <c:crossAx val="337027320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2765,11 +2784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348117344"/>
-        <c:axId val="348114208"/>
+        <c:axId val="337024968"/>
+        <c:axId val="337025752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348117344"/>
+        <c:axId val="337024968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,7 +2813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348114208"/>
+        <c:crossAx val="337025752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2802,7 +2821,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348114208"/>
+        <c:axId val="337025752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348117344"/>
+        <c:crossAx val="337024968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2869,277 +2888,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1400" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Performance Per Watt (kB/s per W)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vivado Estimated Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5B9BD5"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr sz="900" b="0" i="0">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$O$43:$T$43</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3 Stage</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5 Stage</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5 Stage w/ Multiplier</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$44:$T$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="348113424"/>
-        <c:axId val="348114992"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="348113424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="348114992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="348114992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="348113424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3436,8 +3184,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="348115776"/>
-        <c:axId val="348112640"/>
+        <c:axId val="337028104"/>
+        <c:axId val="337030456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3620,7 +3368,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3690,11 +3437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348115776"/>
-        <c:axId val="348112640"/>
+        <c:axId val="337028104"/>
+        <c:axId val="337030456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348115776"/>
+        <c:axId val="337028104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,7 +3466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348112640"/>
+        <c:crossAx val="337030456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3727,7 +3474,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348112640"/>
+        <c:axId val="337030456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,7 +3513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348115776"/>
+        <c:crossAx val="337028104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3782,6 +3529,433 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Per Watt (kB/s per W)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vivado Estimated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$44:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$45:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="337832664"/>
+        <c:axId val="337831880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="337832664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337831880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337831880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337832664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -3846,12 +4020,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Performance</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Per Watt (kB/s per W)</a:t>
+              <a:t>Device Power Utilization (mW)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3872,11 +4042,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$44</c:f>
+              <c:f>Sheet1!$N$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vivado Estimated Power</c:v>
+                  <c:v>Measured Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3927,7 +4097,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:f>Sheet1!$O$35:$T$35</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3953,27 +4123,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$44:$T$44</c:f>
+              <c:f>Sheet1!$O$36:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.58</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.93</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.35</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.21</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.97</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,11 +4165,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$45</c:f>
+              <c:f>Sheet1!$N$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measured Power</c:v>
+                  <c:v>Estimated Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4049,7 +4219,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$43:$T$43</c:f>
+              <c:f>Sheet1!$O$35:$T$35</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4075,27 +4245,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$45:$T$45</c:f>
+              <c:f>Sheet1!$O$37:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.31</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.79</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.77</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.52</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.57</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.98</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,11 +4291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348882400"/>
-        <c:axId val="348883184"/>
+        <c:axId val="337833840"/>
+        <c:axId val="337838544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348882400"/>
+        <c:axId val="337833840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348883184"/>
+        <c:crossAx val="337838544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4328,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348883184"/>
+        <c:axId val="337838544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348882400"/>
+        <c:crossAx val="337833840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4209,6 +4379,804 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vivado Estimated Power Utilization per Implementation (mW)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phase Locked Loop Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$56:$T$56</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$57:$T$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$56:$T$56</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$58:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="434343"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$56:$T$56</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$59:$T$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="442885128"/>
+        <c:axId val="442879248"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.2407407407407447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302484E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5146726862302596E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8156508653122758E-2"/>
+                  <c:y val="-3.2407407407407447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8156508653122758E-2"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$56:$T$56</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 Stage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3 Stage w/ Multiplier &amp; Divider</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 Stage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Stage w/ Multiplier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Stage w/ Multiplier and Divider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Stage w/ Multiplier &amp; Divider &amp; BTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$60:$T$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="442885128"/>
+        <c:axId val="442879248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442885128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442879248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442879248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442885128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -4374,31 +5342,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4229100" cy="2743200"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="246354416" name="Chart 6" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>324971</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
@@ -4417,7 +5360,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4444,7 +5387,61 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4229100" cy="2743200"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219575" cy="2743200"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4718,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="L45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5410,11 +6407,11 @@
         <v>35</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:T20" si="2">O17+O18+O19</f>
+        <f>O17+O18+O19</f>
         <v>225</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P20:T20" si="2">P17+P18+P19</f>
         <v>227</v>
       </c>
       <c r="Q20">
@@ -5680,7 +6677,7 @@
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O32">
         <v>355</v>
@@ -5747,6 +6744,24 @@
       </c>
       <c r="B35" t="s">
         <v>48</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5761,6 +6776,27 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
+      <c r="N36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36">
+        <v>355</v>
+      </c>
+      <c r="P36">
+        <v>188</v>
+      </c>
+      <c r="Q36">
+        <v>358</v>
+      </c>
+      <c r="R36">
+        <v>367</v>
+      </c>
+      <c r="S36">
+        <v>363</v>
+      </c>
+      <c r="T36">
+        <v>183</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -5774,6 +6810,33 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
+      <c r="N37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37">
+        <f>O60</f>
+        <v>262</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:T37" si="4">P60</f>
+        <v>275</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5829,36 +6892,36 @@
     </row>
     <row r="44" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N44" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:T44" si="4">ROUND((2^16/O7)/O20,2)</f>
-        <v>22.58</v>
+        <f>ROUND((2^16/O7)/O60,2)</f>
+        <v>19.39</v>
       </c>
       <c r="P44">
-        <f t="shared" si="4"/>
-        <v>90.93</v>
+        <f t="shared" ref="P44:T44" si="5">ROUND((2^16/P7)/P60,2)</f>
+        <v>75.06</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="4"/>
-        <v>18.670000000000002</v>
+        <f t="shared" si="5"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="R44">
-        <f t="shared" si="4"/>
-        <v>24.35</v>
+        <f t="shared" si="5"/>
+        <v>21.15</v>
       </c>
       <c r="S44">
-        <f t="shared" si="4"/>
-        <v>91.21</v>
+        <f t="shared" si="5"/>
+        <v>81.25</v>
       </c>
       <c r="T44">
-        <f t="shared" si="4"/>
-        <v>80.97</v>
+        <f t="shared" si="5"/>
+        <v>67.72</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N45" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O45">
         <f>ROUND((2^16/O7)/O32,2)</f>
@@ -5869,57 +6932,195 @@
         <v>109.79</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:T45" si="5">ROUND((2^16/Q7)/Q32,2)</f>
+        <f t="shared" ref="Q45:T45" si="6">ROUND((2^16/Q7)/Q32,2)</f>
         <v>13.77</v>
       </c>
       <c r="R45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.52</v>
       </c>
       <c r="S45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.57</v>
       </c>
       <c r="T45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.98</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="1">
+        <v>101</v>
+      </c>
+      <c r="P57" s="1">
+        <v>104</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>101</v>
+      </c>
+      <c r="R57" s="1">
+        <v>101</v>
+      </c>
+      <c r="S57" s="1">
+        <v>101</v>
+      </c>
+      <c r="T57" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O58">
+        <v>96</v>
+      </c>
+      <c r="P58">
+        <v>96</v>
+      </c>
+      <c r="Q58">
+        <v>96</v>
+      </c>
+      <c r="R58">
+        <v>96</v>
+      </c>
+      <c r="S58">
+        <v>96</v>
+      </c>
+      <c r="T58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59">
+        <v>65</v>
+      </c>
+      <c r="P59">
+        <v>75</v>
+      </c>
+      <c r="Q59">
+        <v>83</v>
+      </c>
+      <c r="R59">
+        <v>107</v>
+      </c>
+      <c r="S59">
+        <v>87</v>
+      </c>
+      <c r="T59">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60">
+        <f>O57+O58+O59</f>
+        <v>262</v>
+      </c>
+      <c r="P60">
+        <f t="shared" ref="P60:T60" si="7">P57+P58+P59</f>
+        <v>275</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="7"/>
+        <v>304</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="14:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="69" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="15:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
